--- a/courseRecSys.xlsx
+++ b/courseRecSys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -464,6 +464,57 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Kushaal</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.77</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.91</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.92</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ramsai Koushik </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ellanti Bharath Sai </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Yash</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abdul Hadi </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">G.Venkata Raghava</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Shreyas</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ajitesh Kumar Singh </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kalyan</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Prem</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Karthik Sama</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Shivankar Pilligundla </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">R</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -560,8 +611,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AE129" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:AE129"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AE163" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:AE163"/>
   <x:tableColumns count="31">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -10800,11 +10851,2493 @@
       <x:c r="AD129" s="10" t="s"/>
       <x:c r="AE129" s="10" t="s"/>
     </x:row>
+    <x:row r="130" hidden="0">
+      <x:c r="A130">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B130" s="2">
+        <x:v>44981.3377314815</x:v>
+      </x:c>
+      <x:c r="C130" s="2">
+        <x:v>44981.3389467593</x:v>
+      </x:c>
+      <x:c r="D130" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E130" s="10" t="s"/>
+      <x:c r="F130" s="10" t="s"/>
+      <x:c r="G130" s="7" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="H130" s="7" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="I130" s="7" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="J130" s="7" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="K130" s="7" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="L130" s="7" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="M130" s="7" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="N130" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="O130" s="10" t="s"/>
+      <x:c r="P130" s="10" t="s"/>
+      <x:c r="Q130" s="10" t="s"/>
+      <x:c r="R130" s="10" t="s"/>
+      <x:c r="S130" s="10" t="s"/>
+      <x:c r="T130" s="10" t="s"/>
+      <x:c r="U130" s="10" t="s"/>
+      <x:c r="V130" s="10" t="s"/>
+      <x:c r="W130" s="10" t="s"/>
+      <x:c r="X130" s="10" t="s"/>
+      <x:c r="Y130" s="10" t="s"/>
+      <x:c r="Z130" s="10" t="s"/>
+      <x:c r="AA130" s="10" t="s"/>
+      <x:c r="AB130" s="7" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="AC130" s="10" t="s"/>
+      <x:c r="AD130" s="10" t="s"/>
+      <x:c r="AE130" s="10" t="s"/>
+    </x:row>
+    <x:row r="131" hidden="0">
+      <x:c r="A131">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B131" s="2">
+        <x:v>44981.3382407407</x:v>
+      </x:c>
+      <x:c r="C131" s="2">
+        <x:v>44981.3393055556</x:v>
+      </x:c>
+      <x:c r="D131" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E131" s="10" t="s"/>
+      <x:c r="F131" s="10" t="s"/>
+      <x:c r="G131" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H131" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I131" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J131" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K131" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L131" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M131" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N131" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O131" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P131" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q131" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R131" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="S131" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="T131" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U131" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="V131" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="W131" s="10" t="s"/>
+      <x:c r="X131" s="10" t="s"/>
+      <x:c r="Y131" s="10" t="s"/>
+      <x:c r="Z131" s="10" t="s"/>
+      <x:c r="AA131" s="10" t="s"/>
+      <x:c r="AB131" s="10" t="s"/>
+      <x:c r="AC131" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD131" s="10" t="s"/>
+      <x:c r="AE131" s="10" t="s"/>
+    </x:row>
+    <x:row r="132" hidden="0">
+      <x:c r="A132">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B132" s="2">
+        <x:v>44981.3382407407</x:v>
+      </x:c>
+      <x:c r="C132" s="2">
+        <x:v>44981.3393287037</x:v>
+      </x:c>
+      <x:c r="D132" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E132" s="10" t="s"/>
+      <x:c r="F132" s="10" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="G132" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H132" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I132" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J132" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K132" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L132" s="10" t="s"/>
+      <x:c r="M132" s="10" t="s"/>
+      <x:c r="N132" s="10" t="s"/>
+      <x:c r="O132" s="10" t="s"/>
+      <x:c r="P132" s="10" t="s"/>
+      <x:c r="Q132" s="10" t="s"/>
+      <x:c r="R132" s="10" t="s"/>
+      <x:c r="S132" s="10" t="s"/>
+      <x:c r="T132" s="10" t="s"/>
+      <x:c r="U132" s="10" t="s"/>
+      <x:c r="V132" s="10" t="s"/>
+      <x:c r="W132" s="10" t="s"/>
+      <x:c r="X132" s="10" t="s"/>
+      <x:c r="Y132" s="10" t="s"/>
+      <x:c r="Z132" s="10" t="s"/>
+      <x:c r="AA132" s="10" t="s"/>
+      <x:c r="AB132" s="10" t="s"/>
+      <x:c r="AC132" s="10" t="s"/>
+      <x:c r="AD132" s="10" t="s"/>
+      <x:c r="AE132" s="10" t="s"/>
+    </x:row>
+    <x:row r="133" hidden="0">
+      <x:c r="A133">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B133" s="2">
+        <x:v>44981.3379398148</x:v>
+      </x:c>
+      <x:c r="C133" s="2">
+        <x:v>44981.3400231481</x:v>
+      </x:c>
+      <x:c r="D133" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E133" s="10" t="s"/>
+      <x:c r="F133" s="10" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="G133" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H133" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I133" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J133" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="K133" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L133" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M133" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="N133" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="O133" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P133" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="Q133" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R133" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="S133" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="T133" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="U133" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="V133" s="10" t="s"/>
+      <x:c r="W133" s="10" t="s"/>
+      <x:c r="X133" s="10" t="s"/>
+      <x:c r="Y133" s="10" t="s"/>
+      <x:c r="Z133" s="10" t="s"/>
+      <x:c r="AA133" s="10" t="s"/>
+      <x:c r="AB133" s="10" t="s"/>
+      <x:c r="AC133" s="10" t="s"/>
+      <x:c r="AD133" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="AE133" s="10" t="s"/>
+    </x:row>
+    <x:row r="134" hidden="0">
+      <x:c r="A134">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B134" s="2">
+        <x:v>44981.3407060185</x:v>
+      </x:c>
+      <x:c r="C134" s="2">
+        <x:v>44981.3423842593</x:v>
+      </x:c>
+      <x:c r="D134" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E134" s="10" t="s"/>
+      <x:c r="F134" s="10" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="G134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I134" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J134" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="K134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M134" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="N134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O134" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q134" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R134" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="S134" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="T134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="V134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="W134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X134" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Y134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Z134" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA134" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AB134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AC134" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD134" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AE134" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" hidden="0">
+      <x:c r="A135">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B135" s="2">
+        <x:v>44981.3450810185</x:v>
+      </x:c>
+      <x:c r="C135" s="2">
+        <x:v>44981.3465277778</x:v>
+      </x:c>
+      <x:c r="D135" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E135" s="10" t="s"/>
+      <x:c r="F135" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G135" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H135" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I135" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J135" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K135" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="L135" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M135" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="N135" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O135" s="10" t="s"/>
+      <x:c r="P135" s="10" t="s"/>
+      <x:c r="Q135" s="10" t="s"/>
+      <x:c r="R135" s="10" t="s"/>
+      <x:c r="S135" s="10" t="s"/>
+      <x:c r="T135" s="10" t="s"/>
+      <x:c r="U135" s="10" t="s"/>
+      <x:c r="V135" s="10" t="s"/>
+      <x:c r="W135" s="10" t="s"/>
+      <x:c r="X135" s="10" t="s"/>
+      <x:c r="Y135" s="10" t="s"/>
+      <x:c r="Z135" s="10" t="s"/>
+      <x:c r="AA135" s="10" t="s"/>
+      <x:c r="AB135" s="10" t="s"/>
+      <x:c r="AC135" s="10" t="s"/>
+      <x:c r="AD135" s="10" t="s"/>
+      <x:c r="AE135" s="10" t="s"/>
+    </x:row>
+    <x:row r="136" hidden="0">
+      <x:c r="A136">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B136" s="2">
+        <x:v>44981.3547222222</x:v>
+      </x:c>
+      <x:c r="C136" s="2">
+        <x:v>44981.3558680556</x:v>
+      </x:c>
+      <x:c r="D136" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E136" s="10" t="s"/>
+      <x:c r="F136" s="10" t="s"/>
+      <x:c r="G136" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H136" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I136" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J136" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="K136" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L136" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M136" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N136" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O136" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P136" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Q136" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="R136" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="S136" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T136" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U136" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="V136" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="W136" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X136" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Y136" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Z136" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA136" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AB136" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AC136" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD136" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AE136" s="10" t="s"/>
+    </x:row>
+    <x:row r="137" hidden="0">
+      <x:c r="A137">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B137" s="2">
+        <x:v>44981.3558449074</x:v>
+      </x:c>
+      <x:c r="C137" s="2">
+        <x:v>44981.3599074074</x:v>
+      </x:c>
+      <x:c r="D137" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E137" s="10" t="s"/>
+      <x:c r="F137" s="10" t="s"/>
+      <x:c r="G137" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H137" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I137" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="J137" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K137" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L137" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="M137" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="N137" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O137" s="10" t="s"/>
+      <x:c r="P137" s="10" t="s"/>
+      <x:c r="Q137" s="10" t="s"/>
+      <x:c r="R137" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="S137" s="10" t="s"/>
+      <x:c r="T137" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U137" s="10" t="s"/>
+      <x:c r="V137" s="10" t="s"/>
+      <x:c r="W137" s="10" t="s"/>
+      <x:c r="X137" s="10" t="s"/>
+      <x:c r="Y137" s="10" t="s"/>
+      <x:c r="Z137" s="10" t="s"/>
+      <x:c r="AA137" s="10" t="s"/>
+      <x:c r="AB137" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AC137" s="10" t="s"/>
+      <x:c r="AD137" s="10" t="s"/>
+      <x:c r="AE137" s="10" t="s"/>
+    </x:row>
+    <x:row r="138" hidden="0">
+      <x:c r="A138">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B138" s="2">
+        <x:v>44981.3615162037</x:v>
+      </x:c>
+      <x:c r="C138" s="2">
+        <x:v>44981.3625</x:v>
+      </x:c>
+      <x:c r="D138" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E138" s="10" t="s"/>
+      <x:c r="F138" s="10" t="s"/>
+      <x:c r="G138" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H138" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I138" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J138" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K138" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L138" s="10" t="s"/>
+      <x:c r="M138" s="10" t="s"/>
+      <x:c r="N138" s="10" t="s"/>
+      <x:c r="O138" s="10" t="s"/>
+      <x:c r="P138" s="10" t="s"/>
+      <x:c r="Q138" s="10" t="s"/>
+      <x:c r="R138" s="10" t="s"/>
+      <x:c r="S138" s="10" t="s"/>
+      <x:c r="T138" s="10" t="s"/>
+      <x:c r="U138" s="10" t="s"/>
+      <x:c r="V138" s="10" t="s"/>
+      <x:c r="W138" s="10" t="s"/>
+      <x:c r="X138" s="10" t="s"/>
+      <x:c r="Y138" s="10" t="s"/>
+      <x:c r="Z138" s="10" t="s"/>
+      <x:c r="AA138" s="10" t="s"/>
+      <x:c r="AB138" s="10" t="s"/>
+      <x:c r="AC138" s="10" t="s"/>
+      <x:c r="AD138" s="10" t="s"/>
+      <x:c r="AE138" s="10" t="s"/>
+    </x:row>
+    <x:row r="139" hidden="0">
+      <x:c r="A139">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B139" s="2">
+        <x:v>44981.3641898148</x:v>
+      </x:c>
+      <x:c r="C139" s="2">
+        <x:v>44981.364849537</x:v>
+      </x:c>
+      <x:c r="D139" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E139" s="10" t="s"/>
+      <x:c r="F139" s="10" t="s"/>
+      <x:c r="G139" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H139" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I139" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J139" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K139" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L139" s="10" t="s"/>
+      <x:c r="M139" s="10" t="s"/>
+      <x:c r="N139" s="10" t="s"/>
+      <x:c r="O139" s="10" t="s"/>
+      <x:c r="P139" s="10" t="s"/>
+      <x:c r="Q139" s="10" t="s"/>
+      <x:c r="R139" s="10" t="s"/>
+      <x:c r="S139" s="10" t="s"/>
+      <x:c r="T139" s="10" t="s"/>
+      <x:c r="U139" s="10" t="s"/>
+      <x:c r="V139" s="10" t="s"/>
+      <x:c r="W139" s="10" t="s"/>
+      <x:c r="X139" s="10" t="s"/>
+      <x:c r="Y139" s="10" t="s"/>
+      <x:c r="Z139" s="10" t="s"/>
+      <x:c r="AA139" s="10" t="s"/>
+      <x:c r="AB139" s="10" t="s"/>
+      <x:c r="AC139" s="10" t="s"/>
+      <x:c r="AD139" s="10" t="s"/>
+      <x:c r="AE139" s="10" t="s"/>
+    </x:row>
+    <x:row r="140" hidden="0">
+      <x:c r="A140">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B140" s="2">
+        <x:v>44981.3714699074</x:v>
+      </x:c>
+      <x:c r="C140" s="2">
+        <x:v>44981.3730208333</x:v>
+      </x:c>
+      <x:c r="D140" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E140" s="10" t="s"/>
+      <x:c r="F140" s="10" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O140" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P140" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Q140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R140" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="S140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="V140" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="W140" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X140" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Y140" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Z140" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AB140" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AC140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD140" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AE140" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" hidden="0">
+      <x:c r="A141">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B141" s="2">
+        <x:v>44981.3721180556</x:v>
+      </x:c>
+      <x:c r="C141" s="2">
+        <x:v>44981.3734375</x:v>
+      </x:c>
+      <x:c r="D141" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E141" s="10" t="s"/>
+      <x:c r="F141" s="10" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="G141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O141" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P141" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Q141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R141" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="S141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="V141" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="W141" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X141" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Y141" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Z141" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AB141" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AC141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD141" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AE141" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" hidden="0">
+      <x:c r="A142">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B142" s="2">
+        <x:v>44981.3727199074</x:v>
+      </x:c>
+      <x:c r="C142" s="2">
+        <x:v>44981.3735300926</x:v>
+      </x:c>
+      <x:c r="D142" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E142" s="10" t="s"/>
+      <x:c r="F142" s="10" t="s"/>
+      <x:c r="G142" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H142" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I142" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J142" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="K142" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L142" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M142" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N142" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O142" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="P142" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q142" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R142" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="S142" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T142" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U142" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="V142" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="W142" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X142" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Y142" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Z142" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA142" s="10" t="s"/>
+      <x:c r="AB142" s="10" t="s"/>
+      <x:c r="AC142" s="10" t="s"/>
+      <x:c r="AD142" s="10" t="s"/>
+      <x:c r="AE142" s="10" t="s"/>
+    </x:row>
+    <x:row r="143" hidden="0">
+      <x:c r="A143">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B143" s="2">
+        <x:v>44981.3816319444</x:v>
+      </x:c>
+      <x:c r="C143" s="2">
+        <x:v>44981.3840625</x:v>
+      </x:c>
+      <x:c r="D143" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E143" s="10" t="s"/>
+      <x:c r="F143" s="10" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G143" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H143" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I143" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J143" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K143" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L143" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M143" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N143" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O143" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P143" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Q143" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R143" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="S143" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="T143" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U143" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="V143" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="W143" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="X143" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="Y143" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="Z143" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AA143" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AB143" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AC143" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD143" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AE143" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" hidden="0">
+      <x:c r="A144">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B144" s="2">
+        <x:v>44981.4002314815</x:v>
+      </x:c>
+      <x:c r="C144" s="2">
+        <x:v>44981.4013078704</x:v>
+      </x:c>
+      <x:c r="D144" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E144" s="10" t="s"/>
+      <x:c r="F144" s="10" t="s"/>
+      <x:c r="G144" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="K144" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L144" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="N144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O144" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="P144" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q144" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="S144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="T144" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="V144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="W144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Y144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Z144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA144" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AB144" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AC144" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD144" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AE144" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" hidden="0">
+      <x:c r="A145">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B145" s="2">
+        <x:v>44981.4112731481</x:v>
+      </x:c>
+      <x:c r="C145" s="2">
+        <x:v>44981.4123726852</x:v>
+      </x:c>
+      <x:c r="D145" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E145" s="10" t="s"/>
+      <x:c r="F145" s="10" t="s"/>
+      <x:c r="G145" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H145" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I145" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J145" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K145" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L145" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="M145" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="N145" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O145" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P145" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Q145" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R145" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="S145" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="T145" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U145" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="V145" s="10" t="s"/>
+      <x:c r="W145" s="10" t="s"/>
+      <x:c r="X145" s="10" t="s"/>
+      <x:c r="Y145" s="10" t="s"/>
+      <x:c r="Z145" s="10" t="s"/>
+      <x:c r="AA145" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AB145" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AC145" s="10" t="s"/>
+      <x:c r="AD145" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AE145" s="10" t="s"/>
+    </x:row>
+    <x:row r="146" hidden="0">
+      <x:c r="A146">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B146" s="2">
+        <x:v>44981.4176388889</x:v>
+      </x:c>
+      <x:c r="C146" s="2">
+        <x:v>44981.4192824074</x:v>
+      </x:c>
+      <x:c r="D146" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E146" s="10" t="s"/>
+      <x:c r="F146" s="10" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="G146" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H146" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I146" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J146" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K146" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L146" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M146" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N146" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O146" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P146" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Q146" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R146" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="S146" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T146" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U146" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="V146" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="W146" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="X146" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Y146" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="Z146" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AA146" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AB146" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AC146" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD146" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AE146" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" hidden="0">
+      <x:c r="A147">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B147" s="2">
+        <x:v>44981.4192013889</x:v>
+      </x:c>
+      <x:c r="C147" s="2">
+        <x:v>44981.4199074074</x:v>
+      </x:c>
+      <x:c r="D147" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E147" s="10" t="s"/>
+      <x:c r="F147" s="10" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G147" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H147" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I147" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J147" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K147" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L147" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M147" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N147" s="10" t="s"/>
+      <x:c r="O147" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="P147" s="10" t="s"/>
+      <x:c r="Q147" s="10" t="s"/>
+      <x:c r="R147" s="10" t="s"/>
+      <x:c r="S147" s="10" t="s"/>
+      <x:c r="T147" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U147" s="10" t="s"/>
+      <x:c r="V147" s="10" t="s"/>
+      <x:c r="W147" s="10" t="s"/>
+      <x:c r="X147" s="10" t="s"/>
+      <x:c r="Y147" s="10" t="s"/>
+      <x:c r="Z147" s="10" t="s"/>
+      <x:c r="AA147" s="10" t="s"/>
+      <x:c r="AB147" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AC147" s="10" t="s"/>
+      <x:c r="AD147" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AE147" s="10" t="s"/>
+    </x:row>
+    <x:row r="148" hidden="0">
+      <x:c r="A148">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B148" s="2">
+        <x:v>44981.4184606481</x:v>
+      </x:c>
+      <x:c r="C148" s="2">
+        <x:v>44981.4205902778</x:v>
+      </x:c>
+      <x:c r="D148" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E148" s="10" t="s"/>
+      <x:c r="F148" s="10" t="s"/>
+      <x:c r="G148" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H148" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I148" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J148" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="K148" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L148" s="10" t="s"/>
+      <x:c r="M148" s="10" t="s"/>
+      <x:c r="N148" s="10" t="s"/>
+      <x:c r="O148" s="10" t="s"/>
+      <x:c r="P148" s="10" t="s"/>
+      <x:c r="Q148" s="10" t="s"/>
+      <x:c r="R148" s="10" t="s"/>
+      <x:c r="S148" s="10" t="s"/>
+      <x:c r="T148" s="10" t="s"/>
+      <x:c r="U148" s="10" t="s"/>
+      <x:c r="V148" s="10" t="s"/>
+      <x:c r="W148" s="10" t="s"/>
+      <x:c r="X148" s="10" t="s"/>
+      <x:c r="Y148" s="10" t="s"/>
+      <x:c r="Z148" s="10" t="s"/>
+      <x:c r="AA148" s="10" t="s"/>
+      <x:c r="AB148" s="10" t="s"/>
+      <x:c r="AC148" s="10" t="s"/>
+      <x:c r="AD148" s="10" t="s"/>
+      <x:c r="AE148" s="10" t="s"/>
+    </x:row>
+    <x:row r="149" hidden="0">
+      <x:c r="A149">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B149" s="2">
+        <x:v>44981.4213773148</x:v>
+      </x:c>
+      <x:c r="C149" s="2">
+        <x:v>44981.4231018518</x:v>
+      </x:c>
+      <x:c r="D149" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E149" s="10" t="s"/>
+      <x:c r="F149" s="10" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="G149" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H149" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I149" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J149" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K149" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L149" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="M149" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="N149" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="O149" s="10" t="s"/>
+      <x:c r="P149" s="10" t="s"/>
+      <x:c r="Q149" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R149" s="10" t="s"/>
+      <x:c r="S149" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="T149" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U149" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="V149" s="10" t="s"/>
+      <x:c r="W149" s="10" t="s"/>
+      <x:c r="X149" s="10" t="s"/>
+      <x:c r="Y149" s="10" t="s"/>
+      <x:c r="Z149" s="10" t="s"/>
+      <x:c r="AA149" s="10" t="s"/>
+      <x:c r="AB149" s="10" t="s"/>
+      <x:c r="AC149" s="10" t="s"/>
+      <x:c r="AD149" s="10" t="s"/>
+      <x:c r="AE149" s="10" t="s"/>
+    </x:row>
+    <x:row r="150" hidden="0">
+      <x:c r="A150">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B150" s="2">
+        <x:v>44981.4321643518</x:v>
+      </x:c>
+      <x:c r="C150" s="2">
+        <x:v>44981.4336574074</x:v>
+      </x:c>
+      <x:c r="D150" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E150" s="10" t="s"/>
+      <x:c r="F150" s="10" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G150" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H150" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I150" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J150" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K150" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L150" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M150" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="N150" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O150" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="P150" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q150" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R150" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="S150" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T150" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U150" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V150" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="W150" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X150" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Y150" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Z150" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA150" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AB150" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AC150" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AD150" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AE150" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" hidden="0">
+      <x:c r="A151">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B151" s="2">
+        <x:v>44981.4835069444</x:v>
+      </x:c>
+      <x:c r="C151" s="2">
+        <x:v>44981.4840277778</x:v>
+      </x:c>
+      <x:c r="D151" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E151" s="10" t="s"/>
+      <x:c r="F151" s="10" t="s"/>
+      <x:c r="G151" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H151" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I151" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="J151" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K151" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L151" s="10" t="s"/>
+      <x:c r="M151" s="10" t="s"/>
+      <x:c r="N151" s="10" t="s"/>
+      <x:c r="O151" s="10" t="s"/>
+      <x:c r="P151" s="10" t="s"/>
+      <x:c r="Q151" s="10" t="s"/>
+      <x:c r="R151" s="10" t="s"/>
+      <x:c r="S151" s="10" t="s"/>
+      <x:c r="T151" s="10" t="s"/>
+      <x:c r="U151" s="10" t="s"/>
+      <x:c r="V151" s="10" t="s"/>
+      <x:c r="W151" s="10" t="s"/>
+      <x:c r="X151" s="10" t="s"/>
+      <x:c r="Y151" s="10" t="s"/>
+      <x:c r="Z151" s="10" t="s"/>
+      <x:c r="AA151" s="10" t="s"/>
+      <x:c r="AB151" s="10" t="s"/>
+      <x:c r="AC151" s="10" t="s"/>
+      <x:c r="AD151" s="10" t="s"/>
+      <x:c r="AE151" s="10" t="s"/>
+    </x:row>
+    <x:row r="152" hidden="0">
+      <x:c r="A152">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B152" s="2">
+        <x:v>44981.4836111111</x:v>
+      </x:c>
+      <x:c r="C152" s="2">
+        <x:v>44981.4841319444</x:v>
+      </x:c>
+      <x:c r="D152" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E152" s="10" t="s"/>
+      <x:c r="F152" s="10" t="s"/>
+      <x:c r="G152" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H152" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I152" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="J152" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K152" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L152" s="10" t="s"/>
+      <x:c r="M152" s="10" t="s"/>
+      <x:c r="N152" s="10" t="s"/>
+      <x:c r="O152" s="10" t="s"/>
+      <x:c r="P152" s="10" t="s"/>
+      <x:c r="Q152" s="10" t="s"/>
+      <x:c r="R152" s="10" t="s"/>
+      <x:c r="S152" s="10" t="s"/>
+      <x:c r="T152" s="10" t="s"/>
+      <x:c r="U152" s="10" t="s"/>
+      <x:c r="V152" s="10" t="s"/>
+      <x:c r="W152" s="10" t="s"/>
+      <x:c r="X152" s="10" t="s"/>
+      <x:c r="Y152" s="10" t="s"/>
+      <x:c r="Z152" s="10" t="s"/>
+      <x:c r="AA152" s="10" t="s"/>
+      <x:c r="AB152" s="10" t="s"/>
+      <x:c r="AC152" s="10" t="s"/>
+      <x:c r="AD152" s="10" t="s"/>
+      <x:c r="AE152" s="10" t="s"/>
+    </x:row>
+    <x:row r="153" hidden="0">
+      <x:c r="A153">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B153" s="2">
+        <x:v>44981.4913425926</x:v>
+      </x:c>
+      <x:c r="C153" s="2">
+        <x:v>44981.4922222222</x:v>
+      </x:c>
+      <x:c r="D153" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E153" s="10" t="s"/>
+      <x:c r="F153" s="10" t="s"/>
+      <x:c r="G153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I153" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J153" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="K153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="P153" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Q153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="S153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T153" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U153" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="V153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="W153" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Y153" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Z153" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA153" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AB153" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AC153" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD153" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AE153" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" hidden="0">
+      <x:c r="A154">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B154" s="2">
+        <x:v>44981.4982291667</x:v>
+      </x:c>
+      <x:c r="C154" s="2">
+        <x:v>44981.4999074074</x:v>
+      </x:c>
+      <x:c r="D154" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E154" s="10" t="s"/>
+      <x:c r="F154" s="10" t="s"/>
+      <x:c r="G154" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H154" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I154" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J154" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K154" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L154" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M154" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N154" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O154" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P154" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Q154" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R154" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="S154" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="T154" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U154" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V154" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="W154" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X154" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Y154" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Z154" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AA154" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AB154" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AC154" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD154" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AE154" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" hidden="0">
+      <x:c r="A155">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B155" s="2">
+        <x:v>44981.4990740741</x:v>
+      </x:c>
+      <x:c r="C155" s="2">
+        <x:v>44981.5002199074</x:v>
+      </x:c>
+      <x:c r="D155" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E155" s="10" t="s"/>
+      <x:c r="F155" s="10" t="s"/>
+      <x:c r="G155" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H155" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I155" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J155" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K155" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L155" s="10" t="s"/>
+      <x:c r="M155" s="10" t="s"/>
+      <x:c r="N155" s="10" t="s"/>
+      <x:c r="O155" s="10" t="s"/>
+      <x:c r="P155" s="10" t="s"/>
+      <x:c r="Q155" s="10" t="s"/>
+      <x:c r="R155" s="10" t="s"/>
+      <x:c r="S155" s="10" t="s"/>
+      <x:c r="T155" s="10" t="s"/>
+      <x:c r="U155" s="10" t="s"/>
+      <x:c r="V155" s="10" t="s"/>
+      <x:c r="W155" s="10" t="s"/>
+      <x:c r="X155" s="10" t="s"/>
+      <x:c r="Y155" s="10" t="s"/>
+      <x:c r="Z155" s="10" t="s"/>
+      <x:c r="AA155" s="10" t="s"/>
+      <x:c r="AB155" s="10" t="s"/>
+      <x:c r="AC155" s="10" t="s"/>
+      <x:c r="AD155" s="10" t="s"/>
+      <x:c r="AE155" s="10" t="s"/>
+    </x:row>
+    <x:row r="156" hidden="0">
+      <x:c r="A156">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B156" s="2">
+        <x:v>44981.5613310185</x:v>
+      </x:c>
+      <x:c r="C156" s="2">
+        <x:v>44981.5622106481</x:v>
+      </x:c>
+      <x:c r="D156" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E156" s="10" t="s"/>
+      <x:c r="F156" s="10" t="s"/>
+      <x:c r="G156" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H156" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I156" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J156" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K156" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L156" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M156" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N156" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O156" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="P156" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Q156" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R156" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="S156" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="T156" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U156" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="V156" s="10" t="s"/>
+      <x:c r="W156" s="10" t="s"/>
+      <x:c r="X156" s="10" t="s"/>
+      <x:c r="Y156" s="10" t="s"/>
+      <x:c r="Z156" s="10" t="s"/>
+      <x:c r="AA156" s="10" t="s"/>
+      <x:c r="AB156" s="10" t="s"/>
+      <x:c r="AC156" s="10" t="s"/>
+      <x:c r="AD156" s="10" t="s"/>
+      <x:c r="AE156" s="10" t="s"/>
+    </x:row>
+    <x:row r="157" hidden="0">
+      <x:c r="A157">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B157" s="2">
+        <x:v>44981.5791898148</x:v>
+      </x:c>
+      <x:c r="C157" s="2">
+        <x:v>44981.5808217593</x:v>
+      </x:c>
+      <x:c r="D157" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E157" s="10" t="s"/>
+      <x:c r="F157" s="10" t="s"/>
+      <x:c r="G157" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H157" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I157" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J157" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K157" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L157" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M157" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="N157" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="O157" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="P157" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q157" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R157" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="S157" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T157" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="U157" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="V157" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="W157" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X157" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Y157" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Z157" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA157" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AB157" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AC157" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD157" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AE157" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" hidden="0">
+      <x:c r="A158">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B158" s="2">
+        <x:v>44981.5976041667</x:v>
+      </x:c>
+      <x:c r="C158" s="2">
+        <x:v>44981.5986111111</x:v>
+      </x:c>
+      <x:c r="D158" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E158" s="10" t="s"/>
+      <x:c r="F158" s="10" t="s"/>
+      <x:c r="G158" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I158" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J158" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K158" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L158" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M158" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N158" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Q158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R158" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="S158" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="T158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="W158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Y158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Z158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AB158" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AC158" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AD158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AE158" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" hidden="0">
+      <x:c r="A159">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B159" s="2">
+        <x:v>44982.4006712963</x:v>
+      </x:c>
+      <x:c r="C159" s="2">
+        <x:v>44982.4023842593</x:v>
+      </x:c>
+      <x:c r="D159" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E159" s="10" t="s"/>
+      <x:c r="F159" s="10" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G159" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H159" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I159" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J159" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K159" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L159" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="M159" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N159" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="O159" s="10" t="s"/>
+      <x:c r="P159" s="10" t="s"/>
+      <x:c r="Q159" s="10" t="s"/>
+      <x:c r="R159" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="S159" s="10" t="s"/>
+      <x:c r="T159" s="10" t="s"/>
+      <x:c r="U159" s="10" t="s"/>
+      <x:c r="V159" s="10" t="s"/>
+      <x:c r="W159" s="10" t="s"/>
+      <x:c r="X159" s="10" t="s"/>
+      <x:c r="Y159" s="10" t="s"/>
+      <x:c r="Z159" s="10" t="s"/>
+      <x:c r="AA159" s="10" t="s"/>
+      <x:c r="AB159" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AC159" s="10" t="s"/>
+      <x:c r="AD159" s="10" t="s"/>
+      <x:c r="AE159" s="10" t="s"/>
+    </x:row>
+    <x:row r="160" hidden="0">
+      <x:c r="A160">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B160" s="2">
+        <x:v>44982.4389699074</x:v>
+      </x:c>
+      <x:c r="C160" s="2">
+        <x:v>44982.4399189815</x:v>
+      </x:c>
+      <x:c r="D160" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E160" s="10" t="s"/>
+      <x:c r="F160" s="10" t="s"/>
+      <x:c r="G160" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H160" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I160" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J160" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K160" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L160" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="M160" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="N160" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O160" s="10" t="s"/>
+      <x:c r="P160" s="10" t="s"/>
+      <x:c r="Q160" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="R160" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="S160" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T160" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U160" s="10" t="s"/>
+      <x:c r="V160" s="10" t="s"/>
+      <x:c r="W160" s="10" t="s"/>
+      <x:c r="X160" s="10" t="s"/>
+      <x:c r="Y160" s="10" t="s"/>
+      <x:c r="Z160" s="10" t="s"/>
+      <x:c r="AA160" s="10" t="s"/>
+      <x:c r="AB160" s="10" t="s"/>
+      <x:c r="AC160" s="10" t="s"/>
+      <x:c r="AD160" s="10" t="s"/>
+      <x:c r="AE160" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" hidden="0">
+      <x:c r="A161">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B161" s="2">
+        <x:v>44982.6828472222</x:v>
+      </x:c>
+      <x:c r="C161" s="2">
+        <x:v>44982.6840740741</x:v>
+      </x:c>
+      <x:c r="D161" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E161" s="10" t="s"/>
+      <x:c r="F161" s="10" t="s"/>
+      <x:c r="G161" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H161" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I161" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="J161" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K161" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L161" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M161" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="N161" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O161" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P161" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="Q161" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R161" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="S161" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="T161" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="U161" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V161" s="10" t="s"/>
+      <x:c r="W161" s="10" t="s"/>
+      <x:c r="X161" s="10" t="s"/>
+      <x:c r="Y161" s="10" t="s"/>
+      <x:c r="Z161" s="10" t="s"/>
+      <x:c r="AA161" s="10" t="s"/>
+      <x:c r="AB161" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AC161" s="10" t="s"/>
+      <x:c r="AD161" s="10" t="s"/>
+      <x:c r="AE161" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" hidden="0">
+      <x:c r="A162">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B162" s="2">
+        <x:v>44984.4069675926</x:v>
+      </x:c>
+      <x:c r="C162" s="2">
+        <x:v>44984.4076041667</x:v>
+      </x:c>
+      <x:c r="D162" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E162" s="10" t="s"/>
+      <x:c r="F162" s="10" t="s"/>
+      <x:c r="G162" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H162" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I162" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J162" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="K162" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L162" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M162" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="N162" s="10" t="s"/>
+      <x:c r="O162" s="10" t="s"/>
+      <x:c r="P162" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="Q162" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R162" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="S162" s="10" t="s"/>
+      <x:c r="T162" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="U162" s="10" t="s"/>
+      <x:c r="V162" s="10" t="s"/>
+      <x:c r="W162" s="10" t="s"/>
+      <x:c r="X162" s="10" t="s"/>
+      <x:c r="Y162" s="10" t="s"/>
+      <x:c r="Z162" s="10" t="s"/>
+      <x:c r="AA162" s="10" t="s"/>
+      <x:c r="AB162" s="10" t="s"/>
+      <x:c r="AC162" s="10" t="s"/>
+      <x:c r="AD162" s="10" t="s"/>
+      <x:c r="AE162" s="10" t="s"/>
+    </x:row>
+    <x:row r="163" hidden="0">
+      <x:c r="A163">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B163" s="2">
+        <x:v>44984.4076851852</x:v>
+      </x:c>
+      <x:c r="C163" s="2">
+        <x:v>44984.408125</x:v>
+      </x:c>
+      <x:c r="D163" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E163" s="10" t="s"/>
+      <x:c r="F163" s="10" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G163" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H163" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I163" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J163" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="K163" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="L163" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M163" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="N163" s="10" t="s"/>
+      <x:c r="O163" s="10" t="s"/>
+      <x:c r="P163" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="Q163" s="10" t="s"/>
+      <x:c r="R163" s="10" t="s"/>
+      <x:c r="S163" s="10" t="s"/>
+      <x:c r="T163" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U163" s="10" t="s"/>
+      <x:c r="V163" s="10" t="s"/>
+      <x:c r="W163" s="10" t="s"/>
+      <x:c r="X163" s="10" t="s"/>
+      <x:c r="Y163" s="10" t="s"/>
+      <x:c r="Z163" s="10" t="s"/>
+      <x:c r="AA163" s="10" t="s"/>
+      <x:c r="AB163" s="10" t="s"/>
+      <x:c r="AC163" s="10" t="s"/>
+      <x:c r="AD163" s="10" t="s"/>
+      <x:c r="AE163" s="10" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R406fccc0242c4a12"/>
+    <x:tablePart r:id="Re981fb2a156a4fae"/>
   </x:tableParts>
 </x:worksheet>
 </file>